--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>979063.6502943338</v>
+        <v>976806.628385251</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>328.6188756177278</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>108.8640957525906</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>139.8939792152981</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>362.1271759153769</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>207.2096032800586</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.25260122792275</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.5766315601733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>92.39306372366522</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>60.46179076613092</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>16.88986550434897</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>229.5889480231529</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249755</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10.20716483945413</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761648</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.82091888591736</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>112.2170194283322</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>79.75177172097324</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>113.5103646250821</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>15.07437110675963</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.2131137939806</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>97.44655158134945</v>
+        <v>17.25588147840177</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>113.5103646250813</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>35.19569619650069</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>172.9822426983995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>190.6045469959057</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935323</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102224</v>
+        <v>166.1905658102228</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298069</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345258</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706228</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164233</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430369</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877638</v>
+        <v>218.4926939877642</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172075</v>
+        <v>285.1555829172079</v>
       </c>
       <c r="V37" t="n">
-        <v>136.1645821324406</v>
+        <v>222.2581176597899</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>285.466743048186</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006317</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636894</v>
+        <v>217.5283980636898</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3670,16 +3670,16 @@
         <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433808</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572919</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3913,10 +3913,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572928</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1540.921096014692</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1540.921096014692</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1182.655397407941</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>796.867144809697</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>385.8812400200895</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.921096014692</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.921096014692</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4507,28 +4507,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.100961840373</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>416.7115874010917</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1185.96319079745</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286579</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286579</v>
+        <v>496.5252400791544</v>
       </c>
       <c r="X7" t="n">
-        <v>243.4143268306406</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.00345202677755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>71.00345202677755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,49 +5018,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807097</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5118,19 +5118,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5151,10 +5151,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
         <v>1554.419908487875</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>402.8778888732406</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>402.8778888732406</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>252.7612494609049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>252.7612494609049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>105.8713019629946</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501061</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626704</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.725653781989</v>
+        <v>999.1036114208171</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.308483745028</v>
+        <v>709.6864413838566</v>
       </c>
       <c r="X13" t="n">
-        <v>805.3189328470105</v>
+        <v>481.6968904858393</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.5263537034804</v>
+        <v>260.9043113423091</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,22 +5279,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3610.459375831136</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4323.814463278081</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>411.1769646560685</v>
+        <v>217.4149401676102</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5473,13 +5473,13 @@
         <v>909.2731541783406</v>
       </c>
       <c r="W16" t="n">
-        <v>909.2731541783406</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X16" t="n">
-        <v>681.2836032803233</v>
+        <v>619.85598414138</v>
       </c>
       <c r="Y16" t="n">
-        <v>460.4910241367932</v>
+        <v>399.0634049978498</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,10 +5498,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001584</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>1770.231306037953</v>
+        <v>2707.641918722172</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5592,10 +5592,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>507.4794957532405</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C19" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1561.476600013975</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1272.373733139618</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.689244933731</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W19" t="n">
-        <v>728.2720748967706</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X19" t="n">
-        <v>728.2720748967706</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y19" t="n">
-        <v>507.4794957532405</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176198</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770975</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600804</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3175.513123659586</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5780,22 +5780,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5832,16 +5832,16 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,31 +5850,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>491.7343098287688</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>491.7343098287688</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>491.7343098287688</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>343.8212162463757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>343.8212162463757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>176.1183796210947</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953302</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442067</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927029</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783414</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570259</v>
+        <v>619.8559841413809</v>
       </c>
       <c r="X22" t="n">
-        <v>673.3827746590085</v>
+        <v>391.8664332433635</v>
       </c>
       <c r="Y22" t="n">
-        <v>673.3827746590085</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2383.057343890767</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117413</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3865.782086996751</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353929</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>822.6328654632896</v>
+        <v>260.9043113423054</v>
       </c>
       <c r="C25" t="n">
-        <v>653.6966825353827</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431757</v>
+        <v>1542.890966501057</v>
       </c>
       <c r="U25" t="n">
-        <v>1644.746393431757</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V25" t="n">
-        <v>1390.061905225871</v>
+        <v>999.1036114208134</v>
       </c>
       <c r="W25" t="n">
-        <v>1390.061905225871</v>
+        <v>709.6864413838529</v>
       </c>
       <c r="X25" t="n">
-        <v>1162.072354327853</v>
+        <v>481.6968904858355</v>
       </c>
       <c r="Y25" t="n">
-        <v>1004.281330293529</v>
+        <v>260.9043113423054</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6212,64 +6212,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6300,16 +6300,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>438.2075193111406</v>
+        <v>260.9043113423045</v>
       </c>
       <c r="C28" t="n">
-        <v>339.7766591279594</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>339.7766591279594</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X28" t="n">
-        <v>619.8559841413803</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y28" t="n">
-        <v>619.8559841413803</v>
+        <v>260.9043113423045</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6443,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,19 +6464,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>300.0484256555949</v>
+        <v>210.2179684131228</v>
       </c>
       <c r="C31" t="n">
-        <v>131.112242727688</v>
+        <v>210.2179684131228</v>
       </c>
       <c r="D31" t="n">
-        <v>131.112242727688</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>131.112242727688</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>131.112242727688</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>131.112242727688</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6619,7 +6619,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442064</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208125</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>709.686441383852</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858346</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858346</v>
+        <v>391.8664332433625</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867998</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>2883.99303492678</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>3763.957685256235</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,28 +6777,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>511.9395339702918</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C34" t="n">
-        <v>343.0033510423849</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6886,22 +6886,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814701</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1210.99471973551</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W34" t="n">
-        <v>921.5775496985489</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X34" t="n">
-        <v>693.5879988005315</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="Y34" t="n">
-        <v>693.5879988005315</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1231.058905050226</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,16 +7044,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>871.7851118255074</v>
+        <v>263.4302928425589</v>
       </c>
       <c r="C37" t="n">
-        <v>703.9158534313434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>554.8661385527505</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>408.0199695041002</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>262.1969465399326</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308514</v>
+        <v>141.729359630851</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152491</v>
+        <v>346.7622353152483</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992665</v>
+        <v>664.3677264992656</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834337</v>
+        <v>1009.570464834336</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275723</v>
+        <v>1352.024534275721</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931657</v>
+        <v>1652.399825931655</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100838</v>
+        <v>1886.053019100836</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988874</v>
+        <v>1964.709007988871</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988874</v>
+        <v>1875.945475280142</v>
       </c>
       <c r="S37" t="n">
-        <v>1964.709007988874</v>
+        <v>1685.326515640711</v>
       </c>
       <c r="T37" t="n">
-        <v>1744.009317092143</v>
+        <v>1464.626824743979</v>
       </c>
       <c r="U37" t="n">
-        <v>1455.973374751529</v>
+        <v>1176.590882403365</v>
       </c>
       <c r="V37" t="n">
-        <v>1318.433392799569</v>
+        <v>952.0877332520621</v>
       </c>
       <c r="W37" t="n">
-        <v>1318.433392799569</v>
+        <v>663.7374877488439</v>
       </c>
       <c r="X37" t="n">
-        <v>1091.510766435295</v>
+        <v>663.7374877488439</v>
       </c>
       <c r="Y37" t="n">
-        <v>871.7851118255074</v>
+        <v>444.0118331390562</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>304.0396960664507</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>637.8590697562972</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7254,10 +7254,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215047</v>
+        <v>788.515167821506</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416711</v>
+        <v>667.0286178416724</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774087</v>
+        <v>564.36161137741</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430889</v>
+        <v>463.8981507430904</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932534</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160456</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,31 +7351,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7412,19 +7412,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M41" t="n">
-        <v>1923.729615463052</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577531</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P41" t="n">
         <v>4260.556453353931</v>
@@ -7436,25 +7436,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215063</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416727</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774103</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430905</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932534</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160456</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499225</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7603,16 +7603,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X43" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036727</v>
       </c>
     </row>
     <row r="44">
@@ -7646,22 +7646,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>304.0396960664507</v>
       </c>
       <c r="K44" t="n">
-        <v>888.4135721382786</v>
+        <v>637.8590697562972</v>
       </c>
       <c r="L44" t="n">
-        <v>1339.447785386687</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M44" t="n">
-        <v>2317.998088216516</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N44" t="n">
-        <v>3297.750360443163</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
         <v>4195.497197679678</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430899</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932529</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,7 +7807,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
         <v>800.7468040499225</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>60.66917680434125</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400235</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>148.4180109385407</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>374.1693948021951</v>
       </c>
       <c r="N17" t="n">
-        <v>288.0478149561031</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,25 +9401,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>13.98823883546879</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>370.4516004729498</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,19 +9881,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>161.0524397463273</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>123.4719563470478</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>315.1679217109336</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>163.3991441460108</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>19.7975057161928</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11060,22 +11060,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>198.7154374299962</v>
+        <v>395.1460246798098</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>19.7975057161928</v>
       </c>
       <c r="K44" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696179</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>155.8186434195741</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.0110612960199</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>46.61145443660426</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370432</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>107.331929847837</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>65.00324319334754</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>105.0742887270127</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>152.1724499918682</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.37153955811416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>69.80026951727838</v>
+        <v>149.9909396202261</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>35.10510839313102</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>109.5593187178201</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25126,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>79.15540062542846</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>27.98010635618914</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935319</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298074</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581642</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345262</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706232</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259154</v>
+        <v>143.6987596259158</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143269</v>
+        <v>95.29616512143309</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164193</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430365</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>114.916805902982</v>
+        <v>28.82327037563305</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481856</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.6534001006322</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-8.262279876946173e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>990205.956262619</v>
+        <v>990205.9562626188</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>990205.9562626188</v>
+        <v>990205.9562626189</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>990205.9562626188</v>
+        <v>990205.9562626189</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>990205.9562626188</v>
+        <v>990205.9562626189</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>990946.3062123655</v>
+        <v>990946.3062123653</v>
       </c>
     </row>
     <row r="14">
@@ -26323,37 +26323,37 @@
         <v>416935.8762313324</v>
       </c>
       <c r="F2" t="n">
-        <v>416935.8762313325</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="G2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="H2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313325</v>
       </c>
       <c r="I2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="J2" t="n">
-        <v>416935.8762313325</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="K2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313327</v>
       </c>
       <c r="L2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313326</v>
       </c>
       <c r="M2" t="n">
-        <v>417253.1690669385</v>
+        <v>417253.1690669381</v>
       </c>
       <c r="N2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="O2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787487</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.413993407</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696691</v>
+        <v>130487.3190696688</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414973</v>
+        <v>36735.10506415006</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918999</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="L4" t="n">
-        <v>18148.49231918996</v>
-      </c>
       <c r="M4" t="n">
-        <v>18496.05294811455</v>
+        <v>18496.05294811442</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740899</v>
@@ -26485,22 +26485,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955461</v>
+        <v>96472.31657955458</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26525,43 +26525,43 @@
         <v>164839.1642582113</v>
       </c>
       <c r="D6" t="n">
-        <v>164839.1642582113</v>
+        <v>164839.1642582112</v>
       </c>
       <c r="E6" t="n">
-        <v>-424973.5483349783</v>
+        <v>-425040.7438252038</v>
       </c>
       <c r="F6" t="n">
-        <v>302403.8656584289</v>
+        <v>302336.670168203</v>
       </c>
       <c r="G6" t="n">
-        <v>302403.8656584289</v>
+        <v>302336.670168203</v>
       </c>
       <c r="H6" t="n">
-        <v>302403.8656584288</v>
+        <v>302336.6701682028</v>
       </c>
       <c r="I6" t="n">
-        <v>302403.8656584288</v>
+        <v>302336.6701682031</v>
       </c>
       <c r="J6" t="n">
-        <v>125980.646465836</v>
+        <v>125913.4509756105</v>
       </c>
       <c r="K6" t="n">
-        <v>302403.8656584287</v>
+        <v>302336.6701682032</v>
       </c>
       <c r="L6" t="n">
-        <v>302403.8656584289</v>
+        <v>302336.6701682032</v>
       </c>
       <c r="M6" t="n">
-        <v>171797.4804696002</v>
+        <v>171731.7958976394</v>
       </c>
       <c r="N6" t="n">
-        <v>260373.4998030878</v>
+        <v>260373.4998030876</v>
       </c>
       <c r="O6" t="n">
         <v>297108.6048672376</v>
       </c>
       <c r="P6" t="n">
-        <v>297108.6048672377</v>
+        <v>297108.6048672376</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859257</v>
@@ -26725,7 +26725,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26753,10 +26753,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018716</v>
+        <v>45.91888133018757</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.033036376212</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>85.16529440306721</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>260.8670049258785</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>85.14112624278619</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.60666574810364</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>206.5745667407363</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>282.2703971086682</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.00802179192146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>290.3407779398153</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>190.7623767421584</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>131.7256075138634</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22.54869530067506</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>4.376943252282217e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405413</v>
+        <v>1.056255288405004</v>
       </c>
     </row>
     <row r="38">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-3.765876499528531e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I20" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>516.2592911966734</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282428</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35665,7 +35665,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>399.2123157422602</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>913.0905106324219</v>
       </c>
       <c r="N17" t="n">
-        <v>840.3496503690146</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>522.0412397236882</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>909.3727163031768</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36601,19 +36601,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>559.8144259656991</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36832,22 +36832,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>675.7737917599593</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>713.9299079303053</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>618.9892585383429</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147161</v>
+        <v>46.63467190147126</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327249</v>
+        <v>207.1039148327246</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586035</v>
+        <v>320.8136274586032</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818892</v>
+        <v>348.6896346818888</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559455</v>
+        <v>345.9132014559451</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110451</v>
+        <v>303.4093855110448</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335158</v>
+        <v>236.0133264335154</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629904</v>
+        <v>79.45049382629865</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>210.5845066849054</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>751.0172728429075</v>
+        <v>947.4478600927213</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,16 +37944,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>210.5845066849054</v>
       </c>
       <c r="K44" t="n">
-        <v>440.9775330409149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
